--- a/pplist.xlsx
+++ b/pplist.xlsx
@@ -18,49 +18,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
+    <x:t>전동킥보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP-자전거B3-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP-킥보드K2-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP-자전거A3-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거A3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
     <x:t>킥보드K2</x:t>
   </x:si>
   <x:si>
     <x:t>자전거B3</x:t>
   </x:si>
   <x:si>
-    <x:t>자전거A3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전동킥보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PP-자전거B3-01</x:t>
+    <x:t>생산시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총생산수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산종료일</x:t>
   </x:si>
   <x:si>
     <x:t>생산제품명</x:t>
   </x:si>
   <x:si>
-    <x:t>생산시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산종료일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총생산수량</x:t>
-  </x:si>
-  <x:si>
     <x:t>생산제품코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PP-킥보드K2-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PP-자전거A3-01</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -215,8 +215,8 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -225,10 +225,13 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -893,12 +896,12 @@
   <x:dimension ref="A1:F4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I14" activeCellId="0" sqref="I14:I14"/>
+      <x:selection activeCell="E12" activeCellId="0" sqref="E12:E12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="4" max="5" width="9.5625" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="5" width="9.5625" style="3" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="16.399999999999999">
@@ -906,16 +909,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>11</x:v>
@@ -923,18 +926,18 @@
     </x:row>
     <x:row r="2" spans="1:6" ht="16.399999999999999">
       <x:c r="A2" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D2" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="5">
         <x:v>45748</x:v>
       </x:c>
-      <x:c r="E2" s="4">
+      <x:c r="E2" s="5">
         <x:v>45777</x:v>
       </x:c>
       <x:c r="F2" s="2">
@@ -943,18 +946,18 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="16.399999999999999">
       <x:c r="A3" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D3" s="3">
+      <x:c r="D3" s="5">
         <x:v>45750</x:v>
       </x:c>
-      <x:c r="E3" s="4">
+      <x:c r="E3" s="5">
         <x:v>45778</x:v>
       </x:c>
       <x:c r="F3" s="2">
@@ -963,18 +966,18 @@
     </x:row>
     <x:row r="4" spans="1:6" ht="16.399999999999999">
       <x:c r="A4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="3">
+      <x:c r="D4" s="5">
         <x:v>45752</x:v>
       </x:c>
-      <x:c r="E4" s="4">
+      <x:c r="E4" s="5">
         <x:v>45782</x:v>
       </x:c>
       <x:c r="F4" s="2">
@@ -982,7 +985,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -998,7 +1001,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1014,7 +1017,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/pplist.xlsx
+++ b/pplist.xlsx
@@ -18,58 +18,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP-자전거B3-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP-자전거A3-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP-킥보드K2-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥보드K2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거B3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산시작일</x:t>
+  </x:si>
+  <x:si>
     <x:t>전동킥보드</x:t>
   </x:si>
   <x:si>
     <x:t>전기자전거A</x:t>
   </x:si>
   <x:si>
-    <x:t>PP-자전거B3-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PP-킥보드K2-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PP-자전거A3-01</x:t>
+    <x:t>총생산수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산종료일</x:t>
   </x:si>
   <x:si>
     <x:t>자전거A3</x:t>
   </x:si>
   <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥보드K2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자전거B3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총생산수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산종료일</x:t>
+    <x:t>생산제품코드</x:t>
   </x:si>
   <x:si>
     <x:t>생산제품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산제품코드</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-  </x:numFmts>
   <x:fonts count="8">
     <x:font>
       <x:name val="돋움"/>
@@ -101,28 +98,12 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -225,13 +206,13 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="55" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="55" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -896,49 +877,50 @@
   <x:dimension ref="A1:F4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E12" activeCellId="0" sqref="E12:E12"/>
+      <x:selection activeCell="H15" activeCellId="0" sqref="H15:H15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="4" max="5" width="9.5625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="16.399999999999999">
       <x:c r="A1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="16.399999999999999">
       <x:c r="A2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="5">
-        <x:v>45748</x:v>
+        <x:v>45778</x:v>
       </x:c>
       <x:c r="E2" s="5">
-        <x:v>45777</x:v>
+        <x:v>45807</x:v>
       </x:c>
       <x:c r="F2" s="2">
         <x:v>100</x:v>
@@ -946,22 +928,22 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="16.399999999999999">
       <x:c r="A3" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D3" s="5">
-        <x:v>45750</x:v>
+        <x:v>45780</x:v>
       </x:c>
       <x:c r="E3" s="5">
-        <x:v>45778</x:v>
+        <x:v>45809</x:v>
       </x:c>
       <x:c r="F3" s="2">
-        <x:v>50</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="16.399999999999999">
@@ -969,23 +951,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="5">
-        <x:v>45752</x:v>
+        <x:v>45785</x:v>
       </x:c>
       <x:c r="E4" s="5">
-        <x:v>45782</x:v>
+        <x:v>45815</x:v>
       </x:c>
       <x:c r="F4" s="2">
-        <x:v>70</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1001,7 +983,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1017,7 +999,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/pplist.xlsx
+++ b/pplist.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="11205" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -18,49 +18,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
+    <x:t>PP-250508-01</x:t>
+  </x:si>
+  <x:si>
     <x:t>전기자전거B</x:t>
   </x:si>
   <x:si>
-    <x:t>PP-자전거B3-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PP-자전거A3-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PP-킥보드K2-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥보드K2</x:t>
+    <x:t>전기자전거A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전동킥보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산제품코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총생산수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산종료일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산제품명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거A3</x:t>
   </x:si>
   <x:si>
     <x:t>자전거B3</x:t>
   </x:si>
   <x:si>
-    <x:t>생산계획코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전동킥보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총생산수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산종료일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자전거A3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산제품코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산제품명</x:t>
+    <x:t>PP-250508-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥보드A1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP-250508-03</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -877,47 +877,48 @@
   <x:dimension ref="A1:F4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H15" activeCellId="0" sqref="H15:H15"/>
+      <x:selection activeCell="H11" activeCellId="0" sqref="H11:H11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
+    <x:col min="1" max="1" width="13.2734375" bestFit="1" customWidth="1"/>
     <x:col min="4" max="5" width="9.5625" style="3" bestFit="1" customWidth="1"/>
     <x:col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="16.399999999999999">
       <x:c r="A1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="16.399999999999999">
       <x:c r="A2" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="5">
-        <x:v>45778</x:v>
+        <x:v>45787</x:v>
       </x:c>
       <x:c r="E2" s="5">
         <x:v>45807</x:v>
@@ -928,16 +929,16 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="16.399999999999999">
       <x:c r="A3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="5">
-        <x:v>45780</x:v>
+        <x:v>45787</x:v>
       </x:c>
       <x:c r="E3" s="5">
         <x:v>45809</x:v>
@@ -948,16 +949,16 @@
     </x:row>
     <x:row r="4" spans="1:6" ht="16.399999999999999">
       <x:c r="A4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="5">
-        <x:v>45785</x:v>
+        <x:v>45787</x:v>
       </x:c>
       <x:c r="E4" s="5">
         <x:v>45815</x:v>
@@ -967,7 +968,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -983,7 +984,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -999,7 +1000,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>